--- a/Code/Results/Cases/Case_5_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.57449846517247</v>
+        <v>15.10031222304571</v>
       </c>
       <c r="C2">
-        <v>20.83125350128461</v>
+        <v>11.9368833554878</v>
       </c>
       <c r="D2">
-        <v>3.140515042907677</v>
+        <v>5.131882537702833</v>
       </c>
       <c r="E2">
-        <v>9.794524774889901</v>
+        <v>9.893039654352568</v>
       </c>
       <c r="F2">
-        <v>33.16809963131696</v>
+        <v>30.69742812745123</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>19.40238577777668</v>
+        <v>22.91209905447385</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.82255881763893</v>
+        <v>16.21238624863645</v>
       </c>
       <c r="N2">
-        <v>11.4700751885138</v>
+        <v>17.73480112790808</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.89969135387891</v>
+        <v>14.49656486284214</v>
       </c>
       <c r="C3">
-        <v>19.32671987562866</v>
+        <v>11.28452866778956</v>
       </c>
       <c r="D3">
-        <v>3.236981358482536</v>
+        <v>5.158064285911068</v>
       </c>
       <c r="E3">
-        <v>9.265036207400758</v>
+        <v>9.806446140188788</v>
       </c>
       <c r="F3">
-        <v>31.34395917090334</v>
+        <v>30.32580373260764</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>18.76807668655355</v>
+        <v>22.86487911953112</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.42502902034351</v>
+        <v>15.92084982569947</v>
       </c>
       <c r="N3">
-        <v>11.73648869873259</v>
+        <v>17.80463104271796</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.81878900966856</v>
+        <v>14.11715935678368</v>
       </c>
       <c r="C4">
-        <v>18.35785344419832</v>
+        <v>10.86731478749963</v>
       </c>
       <c r="D4">
-        <v>3.297827183558566</v>
+        <v>5.174906245129847</v>
       </c>
       <c r="E4">
-        <v>8.937872641140034</v>
+        <v>9.756137006042151</v>
       </c>
       <c r="F4">
-        <v>30.21437129224473</v>
+        <v>30.10653554502547</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>18.39465157861902</v>
+        <v>22.84271331921616</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.52546004464952</v>
+        <v>15.74425087070024</v>
       </c>
       <c r="N4">
-        <v>11.90321461866325</v>
+        <v>17.8494530844848</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.36487439367964</v>
+        <v>13.96062383440401</v>
       </c>
       <c r="C5">
-        <v>17.95147160330658</v>
+        <v>10.69331013941727</v>
       </c>
       <c r="D5">
-        <v>3.323012061423686</v>
+        <v>5.181962297801277</v>
       </c>
       <c r="E5">
-        <v>8.804120208531479</v>
+        <v>9.736371651988062</v>
       </c>
       <c r="F5">
-        <v>29.7520160938247</v>
+        <v>30.01952353422046</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>18.2464863366519</v>
+        <v>22.83539627480157</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.14824669924103</v>
+        <v>15.67299155904073</v>
       </c>
       <c r="N5">
-        <v>11.97197153683832</v>
+        <v>17.86820881083082</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.28868440285244</v>
+        <v>13.93452323559178</v>
       </c>
       <c r="C6">
-        <v>17.88328765055831</v>
+        <v>10.66418272942907</v>
       </c>
       <c r="D6">
-        <v>3.327217160783329</v>
+        <v>5.183145599991938</v>
       </c>
       <c r="E6">
-        <v>8.781887893997482</v>
+        <v>9.733134546498187</v>
       </c>
       <c r="F6">
-        <v>29.67513217436606</v>
+        <v>30.00521950941343</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>18.22212501858257</v>
+        <v>22.83428483949116</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.0849630202803</v>
+        <v>15.66120460603631</v>
       </c>
       <c r="N6">
-        <v>11.98343849085378</v>
+        <v>17.87135283214109</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.81272205076874</v>
+        <v>14.11505568818162</v>
       </c>
       <c r="C7">
-        <v>18.35241993385838</v>
+        <v>10.86498394410646</v>
       </c>
       <c r="D7">
-        <v>3.298165275048216</v>
+        <v>5.175000624659633</v>
       </c>
       <c r="E7">
-        <v>8.936070413564867</v>
+        <v>9.755867442278859</v>
       </c>
       <c r="F7">
-        <v>30.20814349528253</v>
+        <v>30.10535246115369</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>18.39263717137508</v>
+        <v>22.84260769526414</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.52041611495216</v>
+        <v>15.74328684994622</v>
       </c>
       <c r="N7">
-        <v>11.90413856757206</v>
+        <v>17.84970404399676</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.00779724330582</v>
+        <v>14.89409574379577</v>
       </c>
       <c r="C8">
-        <v>20.32170464186592</v>
+        <v>11.7155215764403</v>
       </c>
       <c r="D8">
-        <v>3.173429488000929</v>
+        <v>5.140751045699918</v>
       </c>
       <c r="E8">
-        <v>9.612424483854703</v>
+        <v>9.862599363734661</v>
       </c>
       <c r="F8">
-        <v>32.5413008399714</v>
+        <v>30.56750493762174</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>19.18032862935261</v>
+        <v>22.89440047680648</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.34917309331245</v>
+        <v>16.11142606986684</v>
       </c>
       <c r="N8">
-        <v>11.56129503727649</v>
+        <v>17.75847515111597</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.90605486044448</v>
+        <v>16.3425676286459</v>
       </c>
       <c r="C9">
-        <v>23.83695954240383</v>
+        <v>13.2439666925263</v>
       </c>
       <c r="D9">
-        <v>2.942794821198578</v>
+        <v>5.079661462064228</v>
       </c>
       <c r="E9">
-        <v>10.9206047059082</v>
+        <v>10.09376866516837</v>
       </c>
       <c r="F9">
-        <v>37.03133933362327</v>
+        <v>31.53978443110541</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>20.85413525997096</v>
+        <v>23.05010523997703</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.61630103306853</v>
+        <v>16.84798749576562</v>
       </c>
       <c r="N9">
-        <v>10.91300345743593</v>
+        <v>17.59497098773458</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.53898077173056</v>
+        <v>17.34669929272451</v>
       </c>
       <c r="C10">
-        <v>26.225639176799</v>
+        <v>14.27425869691708</v>
       </c>
       <c r="D10">
-        <v>2.784389346197808</v>
+        <v>5.038473088112043</v>
       </c>
       <c r="E10">
-        <v>11.98983528823612</v>
+        <v>10.27574289181346</v>
       </c>
       <c r="F10">
-        <v>40.27538246573933</v>
+        <v>32.28775897434545</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>22.16711039213515</v>
+        <v>23.19734239285955</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.83787830398792</v>
+        <v>17.39219442637149</v>
       </c>
       <c r="N10">
-        <v>10.4503386330965</v>
+        <v>17.48416269468315</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.69076686951393</v>
+        <v>17.7884680547886</v>
       </c>
       <c r="C11">
-        <v>27.27460551439422</v>
+        <v>14.72170801620016</v>
       </c>
       <c r="D11">
-        <v>2.715662138938768</v>
+        <v>5.020536217572721</v>
       </c>
       <c r="E11">
-        <v>12.50170664167377</v>
+        <v>10.36088360206437</v>
       </c>
       <c r="F11">
-        <v>41.85745575353786</v>
+        <v>32.63387970454265</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>22.78424688448326</v>
+        <v>23.27138062324921</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.81376468463061</v>
+        <v>17.63923393746358</v>
       </c>
       <c r="N11">
-        <v>10.24274764540213</v>
+        <v>17.43576244757029</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.12070969782703</v>
+        <v>17.95345810135597</v>
       </c>
       <c r="C12">
-        <v>27.66683092028175</v>
+        <v>14.8880211107172</v>
       </c>
       <c r="D12">
-        <v>2.690233810539786</v>
+        <v>5.013859008319539</v>
       </c>
       <c r="E12">
-        <v>12.693897678546</v>
+        <v>10.39343879107897</v>
       </c>
       <c r="F12">
-        <v>42.45492147578155</v>
+        <v>32.76566636058784</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>23.02101269484387</v>
+        <v>23.30042263300957</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.17870553253804</v>
+        <v>17.73261094910247</v>
       </c>
       <c r="N12">
-        <v>10.16456292119728</v>
+        <v>17.4177221890837</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.02838334392183</v>
+        <v>17.91802876287642</v>
       </c>
       <c r="C13">
-        <v>27.58257302447633</v>
+        <v>14.8523426483305</v>
       </c>
       <c r="D13">
-        <v>2.695681385157813</v>
+        <v>5.015291944566405</v>
       </c>
       <c r="E13">
-        <v>12.65257443452528</v>
+        <v>10.38641387772311</v>
       </c>
       <c r="F13">
-        <v>42.32637712768671</v>
+        <v>32.73725378515827</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>22.96988024704523</v>
+        <v>23.29412337915821</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.10030710814281</v>
+        <v>17.71250965352261</v>
       </c>
       <c r="N13">
-        <v>10.18138210874929</v>
+        <v>17.42159469009595</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.72626061578</v>
+        <v>17.80208867152743</v>
       </c>
       <c r="C14">
-        <v>27.30697163898681</v>
+        <v>14.73545371180735</v>
       </c>
       <c r="D14">
-        <v>2.713557348313564</v>
+        <v>5.019984572403398</v>
       </c>
       <c r="E14">
-        <v>12.51754962428814</v>
+        <v>10.3635557847337</v>
       </c>
       <c r="F14">
-        <v>41.90666938290023</v>
+        <v>32.64470819100374</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>22.80366275168852</v>
+        <v>23.2737498409758</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.84387849337998</v>
+        <v>17.64692009366238</v>
       </c>
       <c r="N14">
-        <v>10.23630668693787</v>
+        <v>17.43427249954306</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.54040508470306</v>
+        <v>17.7307689330302</v>
       </c>
       <c r="C15">
-        <v>27.13752072352914</v>
+        <v>14.6634468360975</v>
       </c>
       <c r="D15">
-        <v>2.724588839057173</v>
+        <v>5.022873933597618</v>
       </c>
       <c r="E15">
-        <v>12.43463736937195</v>
+        <v>10.34959471301081</v>
       </c>
       <c r="F15">
-        <v>41.64919319630581</v>
+        <v>32.58811118004633</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>22.7022570453366</v>
+        <v>23.26140106349893</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.68622110274524</v>
+        <v>17.60671947622998</v>
       </c>
       <c r="N15">
-        <v>10.27000561705252</v>
+        <v>17.44207549093076</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.46281678299528</v>
+        <v>17.31751418241527</v>
       </c>
       <c r="C16">
-        <v>26.15636360507238</v>
+        <v>14.24458295866182</v>
       </c>
       <c r="D16">
-        <v>2.788957103995281</v>
+        <v>5.039661406295625</v>
       </c>
       <c r="E16">
-        <v>11.9561382988857</v>
+        <v>10.2702241005561</v>
       </c>
       <c r="F16">
-        <v>40.17940060047419</v>
+        <v>32.26524647311798</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>22.12719540314759</v>
+        <v>23.1926450779839</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.77343502183075</v>
+        <v>17.37603096345278</v>
       </c>
       <c r="N16">
-        <v>10.46396373428021</v>
+        <v>17.4873660867198</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.79024794070902</v>
+        <v>17.06004470108136</v>
       </c>
       <c r="C17">
-        <v>25.54509202695305</v>
+        <v>13.98212794280221</v>
       </c>
       <c r="D17">
-        <v>2.829370734738524</v>
+        <v>5.0501648948204</v>
       </c>
       <c r="E17">
-        <v>11.65937795880556</v>
+        <v>10.22211954678265</v>
       </c>
       <c r="F17">
-        <v>39.33720341431262</v>
+        <v>32.06859225904245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>21.77963098221131</v>
+        <v>23.1522671986294</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.20483645319741</v>
+        <v>17.23430727059769</v>
       </c>
       <c r="N17">
-        <v>10.58369126980438</v>
+        <v>17.51566390535942</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.39905328644371</v>
+        <v>16.91054869217514</v>
       </c>
       <c r="C18">
-        <v>25.18993225220561</v>
+        <v>13.82917521644658</v>
       </c>
       <c r="D18">
-        <v>2.852920197801306</v>
+        <v>5.056281510803138</v>
       </c>
       <c r="E18">
-        <v>11.48742615169277</v>
+        <v>10.19467473560993</v>
       </c>
       <c r="F18">
-        <v>38.85186256713099</v>
+        <v>31.95604133489249</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>21.58157366845291</v>
+        <v>23.12970807191559</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.87449954697338</v>
+        <v>17.15274784033753</v>
       </c>
       <c r="N18">
-        <v>10.65282474013051</v>
+        <v>17.53212901304462</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.26584305985623</v>
+        <v>16.85969492433977</v>
       </c>
       <c r="C19">
-        <v>25.06905578937062</v>
+        <v>13.77704778134629</v>
       </c>
       <c r="D19">
-        <v>2.860942970491986</v>
+        <v>5.058365420992613</v>
       </c>
       <c r="E19">
-        <v>11.42898201524647</v>
+        <v>10.18542156080332</v>
       </c>
       <c r="F19">
-        <v>38.68736568626533</v>
+        <v>31.91803340894777</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>21.51482761522797</v>
+        <v>23.12218444881247</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.76207645607322</v>
+        <v>17.12512871338252</v>
       </c>
       <c r="N19">
-        <v>10.67627830344536</v>
+        <v>17.53773629107299</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.86229164931269</v>
+        <v>17.08759938987901</v>
       </c>
       <c r="C20">
-        <v>25.61052981361997</v>
+        <v>14.01027383262416</v>
       </c>
       <c r="D20">
-        <v>2.825036375397704</v>
+        <v>5.049038988221686</v>
       </c>
       <c r="E20">
-        <v>11.69109757763902</v>
+        <v>10.22721739081188</v>
       </c>
       <c r="F20">
-        <v>39.42695091612941</v>
+        <v>32.08946944813473</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>21.81643674351321</v>
+        <v>23.1564967161115</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.26570303028095</v>
+        <v>17.24939923441657</v>
       </c>
       <c r="N20">
-        <v>10.5709181576333</v>
+        <v>17.51263200402581</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.81516662609521</v>
+        <v>17.83620647049101</v>
       </c>
       <c r="C21">
-        <v>27.38805438698317</v>
+        <v>14.76987217563928</v>
       </c>
       <c r="D21">
-        <v>2.708289398224903</v>
+        <v>5.018603109551486</v>
       </c>
       <c r="E21">
-        <v>12.55725202282018</v>
+        <v>10.37026143482955</v>
       </c>
       <c r="F21">
-        <v>42.03002852462252</v>
+        <v>32.67187257529869</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>22.85239949237539</v>
+        <v>23.27970684548149</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.919319451249</v>
+        <v>17.66619073768118</v>
       </c>
       <c r="N21">
-        <v>10.22016228277555</v>
+        <v>17.43054091276562</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.05548793700338</v>
+        <v>18.31201763722913</v>
       </c>
       <c r="C22">
-        <v>28.52089150206972</v>
+        <v>15.24806781961368</v>
       </c>
       <c r="D22">
-        <v>2.635555183401291</v>
+        <v>4.999382413771605</v>
       </c>
       <c r="E22">
-        <v>13.1139050941207</v>
+        <v>10.4655686734462</v>
       </c>
       <c r="F22">
-        <v>43.76381681479371</v>
+        <v>33.05663579176586</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>23.54750625310821</v>
+        <v>23.36608584714967</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.97342598596954</v>
+        <v>17.93754694864518</v>
       </c>
       <c r="N22">
-        <v>9.993421818368866</v>
+        <v>17.37856721350891</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.39665464126151</v>
+        <v>18.05933963668492</v>
       </c>
       <c r="C23">
-        <v>27.91876295190233</v>
+        <v>14.99453551045115</v>
       </c>
       <c r="D23">
-        <v>2.673998449232342</v>
+        <v>5.009579442744566</v>
       </c>
       <c r="E23">
-        <v>12.81757506393172</v>
+        <v>10.41454333094003</v>
       </c>
       <c r="F23">
-        <v>42.8399047774151</v>
+        <v>32.85094370068454</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>23.17477362829693</v>
+        <v>23.31945180583704</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26.4131234150492</v>
+        <v>17.79284498202968</v>
       </c>
       <c r="N23">
-        <v>10.11420027960589</v>
+        <v>17.40615329304031</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82973481471728</v>
+        <v>17.07514649355948</v>
       </c>
       <c r="C24">
-        <v>25.58095704424126</v>
+        <v>13.99755549858193</v>
       </c>
       <c r="D24">
-        <v>2.826994966074105</v>
+        <v>5.049547767582985</v>
       </c>
       <c r="E24">
-        <v>11.67676133180318</v>
+        <v>10.2249119959853</v>
       </c>
       <c r="F24">
-        <v>39.38637968023557</v>
+        <v>32.08002927852922</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>21.79979138549382</v>
+        <v>23.15458251143727</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.23819600032087</v>
+        <v>17.2425764012462</v>
       </c>
       <c r="N24">
-        <v>10.57669194627981</v>
+        <v>17.51400211508582</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.89335745391896</v>
+        <v>15.96051161177802</v>
       </c>
       <c r="C25">
-        <v>22.92141456433297</v>
+        <v>12.84629915081959</v>
       </c>
       <c r="D25">
-        <v>3.003488414439699</v>
+        <v>5.095538561025974</v>
       </c>
       <c r="E25">
-        <v>10.56874760094073</v>
+        <v>10.02900877599982</v>
       </c>
       <c r="F25">
-        <v>35.82658332417202</v>
+        <v>31.27035968232338</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>20.38714818903147</v>
+        <v>23.0021962433866</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.7650973783925</v>
+        <v>16.64777455586022</v>
       </c>
       <c r="N25">
-        <v>11.08593551996862</v>
+        <v>17.63756206291654</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.10031222304571</v>
+        <v>23.5744984651726</v>
       </c>
       <c r="C2">
-        <v>11.9368833554878</v>
+        <v>20.83125350128471</v>
       </c>
       <c r="D2">
-        <v>5.131882537702833</v>
+        <v>3.140515042907619</v>
       </c>
       <c r="E2">
-        <v>9.893039654352568</v>
+        <v>9.794524774889915</v>
       </c>
       <c r="F2">
-        <v>30.69742812745123</v>
+        <v>33.16809963131698</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>22.91209905447385</v>
+        <v>19.40238577777663</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.21238624863645</v>
+        <v>19.82255881763899</v>
       </c>
       <c r="N2">
-        <v>17.73480112790808</v>
+        <v>11.47007518851374</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.49656486284214</v>
+        <v>21.89969135387883</v>
       </c>
       <c r="C3">
-        <v>11.28452866778956</v>
+        <v>19.32671987562874</v>
       </c>
       <c r="D3">
-        <v>5.158064285911068</v>
+        <v>3.236981358482539</v>
       </c>
       <c r="E3">
-        <v>9.806446140188788</v>
+        <v>9.265036207400739</v>
       </c>
       <c r="F3">
-        <v>30.32580373260764</v>
+        <v>31.34395917090335</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>22.86487911953112</v>
+        <v>18.76807668655364</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.92084982569947</v>
+        <v>18.42502902034348</v>
       </c>
       <c r="N3">
-        <v>17.80463104271796</v>
+        <v>11.73648869873262</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.11715935678368</v>
+        <v>20.81878900966863</v>
       </c>
       <c r="C4">
-        <v>10.86731478749963</v>
+        <v>18.35785344419833</v>
       </c>
       <c r="D4">
-        <v>5.174906245129847</v>
+        <v>3.297827183558624</v>
       </c>
       <c r="E4">
-        <v>9.756137006042151</v>
+        <v>8.937872641140022</v>
       </c>
       <c r="F4">
-        <v>30.10653554502547</v>
+        <v>30.2143712922447</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>22.84271331921616</v>
+        <v>18.39465157861891</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.74425087070024</v>
+        <v>17.5254600446496</v>
       </c>
       <c r="N4">
-        <v>17.8494530844848</v>
+        <v>11.90321461866309</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.96062383440401</v>
+        <v>20.36487439367979</v>
       </c>
       <c r="C5">
-        <v>10.69331013941727</v>
+        <v>17.95147160330676</v>
       </c>
       <c r="D5">
-        <v>5.181962297801277</v>
+        <v>3.323012061423574</v>
       </c>
       <c r="E5">
-        <v>9.736371651988062</v>
+        <v>8.804120208531536</v>
       </c>
       <c r="F5">
-        <v>30.01952353422046</v>
+        <v>29.75201609382459</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>22.83539627480157</v>
+        <v>18.24648633665173</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.67299155904073</v>
+        <v>17.14824669924113</v>
       </c>
       <c r="N5">
-        <v>17.86820881083082</v>
+        <v>11.97197153683814</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.93452323559178</v>
+        <v>20.28868440285246</v>
       </c>
       <c r="C6">
-        <v>10.66418272942907</v>
+        <v>17.88328765055831</v>
       </c>
       <c r="D6">
-        <v>5.183145599991938</v>
+        <v>3.327217160783462</v>
       </c>
       <c r="E6">
-        <v>9.733134546498187</v>
+        <v>8.781887893997478</v>
       </c>
       <c r="F6">
-        <v>30.00521950941343</v>
+        <v>29.67513217436589</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>22.83428483949116</v>
+        <v>18.22212501858244</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.66120460603631</v>
+        <v>17.08496302028031</v>
       </c>
       <c r="N6">
-        <v>17.87135283214109</v>
+        <v>11.98343849085362</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.11505568818162</v>
+        <v>20.81272205076879</v>
       </c>
       <c r="C7">
-        <v>10.86498394410646</v>
+        <v>18.35241993385847</v>
       </c>
       <c r="D7">
-        <v>5.175000624659633</v>
+        <v>3.298165275048287</v>
       </c>
       <c r="E7">
-        <v>9.755867442278859</v>
+        <v>8.93607041356486</v>
       </c>
       <c r="F7">
-        <v>30.10535246115369</v>
+        <v>30.20814349528253</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>22.84260769526414</v>
+        <v>18.39263717137506</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.74328684994622</v>
+        <v>17.52041611495224</v>
       </c>
       <c r="N7">
-        <v>17.84970404399676</v>
+        <v>11.904138567572</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.89409574379577</v>
+        <v>23.00779724330578</v>
       </c>
       <c r="C8">
-        <v>11.7155215764403</v>
+        <v>20.32170464186582</v>
       </c>
       <c r="D8">
-        <v>5.140751045699918</v>
+        <v>3.173429488000942</v>
       </c>
       <c r="E8">
-        <v>9.862599363734661</v>
+        <v>9.612424483854697</v>
       </c>
       <c r="F8">
-        <v>30.56750493762174</v>
+        <v>32.54130083997144</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>22.89440047680648</v>
+        <v>19.18032862935267</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.11142606986684</v>
+        <v>19.34917309331239</v>
       </c>
       <c r="N8">
-        <v>17.75847515111597</v>
+        <v>11.56129503727649</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.3425676286459</v>
+        <v>26.90605486044444</v>
       </c>
       <c r="C9">
-        <v>13.2439666925263</v>
+        <v>23.8369595424037</v>
       </c>
       <c r="D9">
-        <v>5.079661462064228</v>
+        <v>2.942794821198637</v>
       </c>
       <c r="E9">
-        <v>10.09376866516837</v>
+        <v>10.92060470590819</v>
       </c>
       <c r="F9">
-        <v>31.53978443110541</v>
+        <v>37.03133933362334</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>23.05010523997703</v>
+        <v>20.85413525997103</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.84798749576562</v>
+        <v>22.6163010330685</v>
       </c>
       <c r="N9">
-        <v>17.59497098773458</v>
+        <v>10.91300345743597</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.34669929272451</v>
+        <v>29.53898077173039</v>
       </c>
       <c r="C10">
-        <v>14.27425869691708</v>
+        <v>26.22563917679886</v>
       </c>
       <c r="D10">
-        <v>5.038473088112043</v>
+        <v>2.784389346198041</v>
       </c>
       <c r="E10">
-        <v>10.27574289181346</v>
+        <v>11.98983528823614</v>
       </c>
       <c r="F10">
-        <v>32.28775897434545</v>
+        <v>40.27538246573923</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>23.19734239285955</v>
+        <v>22.16711039213517</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.39219442637149</v>
+        <v>24.83787830398782</v>
       </c>
       <c r="N10">
-        <v>17.48416269468315</v>
+        <v>10.45033863309656</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.7884680547886</v>
+        <v>30.69076686951392</v>
       </c>
       <c r="C11">
-        <v>14.72170801620016</v>
+        <v>27.2746055143941</v>
       </c>
       <c r="D11">
-        <v>5.020536217572721</v>
+        <v>2.715662138938921</v>
       </c>
       <c r="E11">
-        <v>10.36088360206437</v>
+        <v>12.50170664167374</v>
       </c>
       <c r="F11">
-        <v>32.63387970454265</v>
+        <v>41.85745575353788</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>23.27138062324921</v>
+        <v>22.78424688448333</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.63923393746358</v>
+        <v>25.81376468463055</v>
       </c>
       <c r="N11">
-        <v>17.43576244757029</v>
+        <v>10.24274764540224</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.95345810135597</v>
+        <v>31.12070969782719</v>
       </c>
       <c r="C12">
-        <v>14.8880211107172</v>
+        <v>27.66683092028178</v>
       </c>
       <c r="D12">
-        <v>5.013859008319539</v>
+        <v>2.690233810539888</v>
       </c>
       <c r="E12">
-        <v>10.39343879107897</v>
+        <v>12.69389767854595</v>
       </c>
       <c r="F12">
-        <v>32.76566636058784</v>
+        <v>42.45492147578175</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>23.30042263300957</v>
+        <v>23.02101269484392</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.73261094910247</v>
+        <v>26.17870553253808</v>
       </c>
       <c r="N12">
-        <v>17.4177221890837</v>
+        <v>10.16456292119727</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.91802876287642</v>
+        <v>31.02838334392164</v>
       </c>
       <c r="C13">
-        <v>14.8523426483305</v>
+        <v>27.5825730244763</v>
       </c>
       <c r="D13">
-        <v>5.015291944566405</v>
+        <v>2.695681385157878</v>
       </c>
       <c r="E13">
-        <v>10.38641387772311</v>
+        <v>12.65257443452525</v>
       </c>
       <c r="F13">
-        <v>32.73725378515827</v>
+        <v>42.32637712768656</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>23.29412337915821</v>
+        <v>22.96988024704524</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.71250965352261</v>
+        <v>26.1003071081427</v>
       </c>
       <c r="N13">
-        <v>17.42159469009595</v>
+        <v>10.18138210874934</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.80208867152743</v>
+        <v>30.72626061577998</v>
       </c>
       <c r="C14">
-        <v>14.73545371180735</v>
+        <v>27.30697163898687</v>
       </c>
       <c r="D14">
-        <v>5.019984572403398</v>
+        <v>2.71355734831356</v>
       </c>
       <c r="E14">
-        <v>10.3635557847337</v>
+        <v>12.5175496242882</v>
       </c>
       <c r="F14">
-        <v>32.64470819100374</v>
+        <v>41.90666938290023</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>23.2737498409758</v>
+        <v>22.80366275168855</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.64692009366238</v>
+        <v>25.84387849337997</v>
       </c>
       <c r="N14">
-        <v>17.43427249954306</v>
+        <v>10.2363066869379</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.7307689330302</v>
+        <v>30.54040508470295</v>
       </c>
       <c r="C15">
-        <v>14.6634468360975</v>
+        <v>27.13752072352895</v>
       </c>
       <c r="D15">
-        <v>5.022873933597618</v>
+        <v>2.724588839057232</v>
       </c>
       <c r="E15">
-        <v>10.34959471301081</v>
+        <v>12.43463736937195</v>
       </c>
       <c r="F15">
-        <v>32.58811118004633</v>
+        <v>41.64919319630565</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>23.26140106349893</v>
+        <v>22.7022570453366</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.60671947622998</v>
+        <v>25.68622110274513</v>
       </c>
       <c r="N15">
-        <v>17.44207549093076</v>
+        <v>10.27000561705257</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.31751418241527</v>
+        <v>29.46281678299522</v>
       </c>
       <c r="C16">
-        <v>14.24458295866182</v>
+        <v>26.15636360507235</v>
       </c>
       <c r="D16">
-        <v>5.039661406295625</v>
+        <v>2.788957103995342</v>
       </c>
       <c r="E16">
-        <v>10.2702241005561</v>
+        <v>11.95613829888569</v>
       </c>
       <c r="F16">
-        <v>32.26524647311798</v>
+        <v>40.17940060047417</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>23.1926450779839</v>
+        <v>22.12719540314763</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.37603096345278</v>
+        <v>24.7734350218307</v>
       </c>
       <c r="N16">
-        <v>17.4873660867198</v>
+        <v>10.46396373428028</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.06004470108136</v>
+        <v>28.79024794070905</v>
       </c>
       <c r="C17">
-        <v>13.98212794280221</v>
+        <v>25.54509202695312</v>
       </c>
       <c r="D17">
-        <v>5.0501648948204</v>
+        <v>2.829370734738577</v>
       </c>
       <c r="E17">
-        <v>10.22211954678265</v>
+        <v>11.65937795880548</v>
       </c>
       <c r="F17">
-        <v>32.06859225904245</v>
+        <v>39.33720341431272</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>23.1522671986294</v>
+        <v>21.7796309822114</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.23430727059769</v>
+        <v>24.20483645319739</v>
       </c>
       <c r="N17">
-        <v>17.51566390535942</v>
+        <v>10.58369126980445</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.91054869217514</v>
+        <v>28.3990532864437</v>
       </c>
       <c r="C18">
-        <v>13.82917521644658</v>
+        <v>25.18993225220559</v>
       </c>
       <c r="D18">
-        <v>5.056281510803138</v>
+        <v>2.852920197801351</v>
       </c>
       <c r="E18">
-        <v>10.19467473560993</v>
+        <v>11.48742615169276</v>
       </c>
       <c r="F18">
-        <v>31.95604133489249</v>
+        <v>38.85186256713099</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>23.12970807191559</v>
+        <v>21.58157366845295</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.15274784033753</v>
+        <v>23.87449954697337</v>
       </c>
       <c r="N18">
-        <v>17.53212901304462</v>
+        <v>10.65282474013058</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.85969492433977</v>
+        <v>28.26584305985613</v>
       </c>
       <c r="C19">
-        <v>13.77704778134629</v>
+        <v>25.0690557893706</v>
       </c>
       <c r="D19">
-        <v>5.058365420992613</v>
+        <v>2.860942970492101</v>
       </c>
       <c r="E19">
-        <v>10.18542156080332</v>
+        <v>11.42898201524644</v>
       </c>
       <c r="F19">
-        <v>31.91803340894777</v>
+        <v>38.68736568626534</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>23.12218444881247</v>
+        <v>21.51482761522803</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.12512871338252</v>
+        <v>23.76207645607313</v>
       </c>
       <c r="N19">
-        <v>17.53773629107299</v>
+        <v>10.6762783034454</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.08759938987901</v>
+        <v>28.86229164931259</v>
       </c>
       <c r="C20">
-        <v>14.01027383262416</v>
+        <v>25.61052981361994</v>
       </c>
       <c r="D20">
-        <v>5.049038988221686</v>
+        <v>2.825036375397647</v>
       </c>
       <c r="E20">
-        <v>10.22721739081188</v>
+        <v>11.69109757763902</v>
       </c>
       <c r="F20">
-        <v>32.08946944813473</v>
+        <v>39.42695091612934</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>23.1564967161115</v>
+        <v>21.8164367435132</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.24939923441657</v>
+        <v>24.26570303028089</v>
       </c>
       <c r="N20">
-        <v>17.51263200402581</v>
+        <v>10.57091815763333</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.83620647049101</v>
+        <v>30.8151666260952</v>
       </c>
       <c r="C21">
-        <v>14.76987217563928</v>
+        <v>27.38805438698332</v>
       </c>
       <c r="D21">
-        <v>5.018603109551486</v>
+        <v>2.708289398224907</v>
       </c>
       <c r="E21">
-        <v>10.37026143482955</v>
+        <v>12.55725202282014</v>
       </c>
       <c r="F21">
-        <v>32.67187257529869</v>
+        <v>42.0300285246226</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>23.27970684548149</v>
+        <v>22.85239949237544</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.66619073768118</v>
+        <v>25.919319451249</v>
       </c>
       <c r="N21">
-        <v>17.43054091276562</v>
+        <v>10.22016228277553</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31201763722913</v>
+        <v>32.05548793700332</v>
       </c>
       <c r="C22">
-        <v>15.24806781961368</v>
+        <v>28.52089150206974</v>
       </c>
       <c r="D22">
-        <v>4.999382413771605</v>
+        <v>2.635555183401233</v>
       </c>
       <c r="E22">
-        <v>10.4655686734462</v>
+        <v>13.11390509412066</v>
       </c>
       <c r="F22">
-        <v>33.05663579176586</v>
+        <v>43.76381681479369</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>23.36608584714967</v>
+        <v>23.54750625310824</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.93754694864518</v>
+        <v>26.97342598596949</v>
       </c>
       <c r="N22">
-        <v>17.37856721350891</v>
+        <v>9.993421818368928</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.05933963668492</v>
+        <v>31.39665464126159</v>
       </c>
       <c r="C23">
-        <v>14.99453551045115</v>
+        <v>27.91876295190234</v>
       </c>
       <c r="D23">
-        <v>5.009579442744566</v>
+        <v>2.673998449232449</v>
       </c>
       <c r="E23">
-        <v>10.41454333094003</v>
+        <v>12.81757506393171</v>
       </c>
       <c r="F23">
-        <v>32.85094370068454</v>
+        <v>42.83990477741522</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>23.31945180583704</v>
+        <v>23.17477362829694</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.79284498202968</v>
+        <v>26.41312341504923</v>
       </c>
       <c r="N23">
-        <v>17.40615329304031</v>
+        <v>10.11420027960583</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.07514649355948</v>
+        <v>28.82973481471726</v>
       </c>
       <c r="C24">
-        <v>13.99755549858193</v>
+        <v>25.58095704424123</v>
       </c>
       <c r="D24">
-        <v>5.049547767582985</v>
+        <v>2.826994966073953</v>
       </c>
       <c r="E24">
-        <v>10.2249119959853</v>
+        <v>11.67676133180323</v>
       </c>
       <c r="F24">
-        <v>32.08002927852922</v>
+        <v>39.38637968023561</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>23.15458251143727</v>
+        <v>21.79979138549385</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.2425764012462</v>
+        <v>24.23819600032087</v>
       </c>
       <c r="N24">
-        <v>17.51400211508582</v>
+        <v>10.57669194627981</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.96051161177802</v>
+        <v>25.89335745391905</v>
       </c>
       <c r="C25">
-        <v>12.84629915081959</v>
+        <v>22.92141456433302</v>
       </c>
       <c r="D25">
-        <v>5.095538561025974</v>
+        <v>3.003488414439472</v>
       </c>
       <c r="E25">
-        <v>10.02900877599982</v>
+        <v>10.56874760094074</v>
       </c>
       <c r="F25">
-        <v>31.27035968232338</v>
+        <v>35.82658332417211</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>23.0021962433866</v>
+        <v>20.38714818903153</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.64777455586022</v>
+        <v>21.76509737839255</v>
       </c>
       <c r="N25">
-        <v>17.63756206291654</v>
+        <v>11.08593551996861</v>
       </c>
       <c r="O25">
         <v>0</v>
